--- a/teaser/examples/UKA_Calibration/Room_070505/ZonedInput.xlsx
+++ b/teaser/examples/UKA_Calibration/Room_070505/ZonedInput.xlsx
@@ -12,173 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Floor</t>
-  </si>
-  <si>
-    <t>UsageType</t>
-  </si>
-  <si>
-    <t>RoomIdentifier</t>
-  </si>
-  <si>
-    <t>BelongsToIdentifier</t>
-  </si>
-  <si>
-    <t>NetArea[m²]</t>
-  </si>
-  <si>
-    <t>OuterWallOrientation[°]</t>
-  </si>
-  <si>
-    <t>OuterWallLength[drawing m]</t>
-  </si>
-  <si>
-    <t>Circumference[drawing m]</t>
-  </si>
-  <si>
-    <t>OuterWallConstruction</t>
-  </si>
-  <si>
-    <t>WallAdjacentTo</t>
-  </si>
-  <si>
-    <t>HeatedRoomHeight[m]</t>
-  </si>
-  <si>
-    <t>WindowOrientation[°]</t>
-  </si>
-  <si>
-    <t>WindowArea[m²]</t>
-  </si>
-  <si>
-    <t>WindowConstruction</t>
-  </si>
-  <si>
-    <t>Outer Wall length [m]</t>
-  </si>
-  <si>
-    <t>OuterWallAreaInclWindow</t>
-  </si>
-  <si>
-    <t>OuterWallArea[m²]</t>
-  </si>
-  <si>
-    <t>Inner walls length[m]</t>
-  </si>
-  <si>
-    <t>InnerWallArea[m²]</t>
-  </si>
-  <si>
-    <t>InnerWallConstruction</t>
-  </si>
-  <si>
-    <t>IsGroundFloor</t>
-  </si>
-  <si>
-    <t>IsRooftop</t>
-  </si>
-  <si>
-    <t>FloorConstruction</t>
-  </si>
-  <si>
-    <t>CeilingConstruction</t>
-  </si>
-  <si>
-    <t>Unnamed: 25</t>
-  </si>
-  <si>
-    <t>Window Ventilation (1/0)</t>
-  </si>
-  <si>
-    <t>Ventilated (1/0)</t>
-  </si>
-  <si>
-    <t>Mixing Ventilation (1/0)</t>
-  </si>
-  <si>
-    <t>Fan Number</t>
-  </si>
-  <si>
-    <t>Supply Flow [m³/h]</t>
-  </si>
-  <si>
-    <t>Supply Temp [°C]</t>
-  </si>
-  <si>
-    <t>Exhaust Flow [m³/h]</t>
-  </si>
-  <si>
-    <t>Exhaust Temp [°C]</t>
-  </si>
-  <si>
-    <t>Unnamed: 34</t>
-  </si>
-  <si>
-    <t>Target Temperature [°C]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heating times </t>
-  </si>
-  <si>
-    <t>Occupancy schedule</t>
-  </si>
-  <si>
-    <t>Occupancy Intensity</t>
-  </si>
-  <si>
-    <t>etc.</t>
-  </si>
-  <si>
-    <t>GroundFloorConstruction</t>
-  </si>
-  <si>
-    <t>RooftopConstruction</t>
-  </si>
-  <si>
-    <t>RoomCluster</t>
-  </si>
-  <si>
-    <t>RoomClusterUsage</t>
-  </si>
-  <si>
-    <t>UsageType_Teaser</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>PatientRoom</t>
-  </si>
-  <si>
-    <t>7.05.05</t>
-  </si>
-  <si>
-    <t>UKA_fromStatistic</t>
-  </si>
-  <si>
-    <t>UKA</t>
-  </si>
-  <si>
-    <t>UKA_07.05.05</t>
-  </si>
-  <si>
-    <t>Washing</t>
-  </si>
-  <si>
-    <t>7.05.05.1</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,150 +366,244 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Floor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>UsageType</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RoomIdentifier</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BelongsToIdentifier</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>NetArea[m²]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>OuterWallOrientation[°]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>OuterWallLength[drawing m]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Circumference[drawing m]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>OuterWallConstruction</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>WallAdjacentTo</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>HeatedRoomHeight[m]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>WindowOrientation[°]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>WindowArea[m²]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>WindowConstruction</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Outer Wall length [m]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>OuterWallAreaInclWindow</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>OuterWallArea[m²]</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Inner walls length[m]</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>InnerWallArea[m²]</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>InnerWallConstruction</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>IsGroundFloor</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>IsRooftop</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>FloorConstruction</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>CeilingConstruction</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 25</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Window Ventilation (1/0)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Ventilated (1/0)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Mixing Ventilation (1/0)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Fan Number</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Supply Flow [m³/h]</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Supply Temp [°C]</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Exhaust Flow [m³/h]</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Exhaust Temp [°C]</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 34</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Target Temperature [°C]</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heating times </t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Occupancy schedule</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Occupancy Intensity</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>etc.</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>GroundFloorConstruction</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>RooftopConstruction</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>RoomCluster</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>RoomClusterUsage</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>UsageType_Teaser</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -689,13 +616,17 @@
       <c r="D2" t="n">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PatientRoom</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.05.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>38.54</v>
       </c>
@@ -708,10 +639,12 @@
       <c r="K2" t="n">
         <v>27.6</v>
       </c>
-      <c r="L2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" t="s"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>UKA_fromStatistic</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>2.8</v>
       </c>
@@ -721,8 +654,10 @@
       <c r="P2" t="n">
         <v>10.2</v>
       </c>
-      <c r="Q2" t="s">
-        <v>50</v>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>UKA</t>
+        </is>
       </c>
       <c r="R2" t="n">
         <v>6</v>
@@ -739,8 +674,10 @@
       <c r="V2" t="n">
         <v>60.47999999999999</v>
       </c>
-      <c r="W2" t="s">
-        <v>49</v>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>UKA_fromStatistic</t>
+        </is>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -748,47 +685,63 @@
       <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="s"/>
-      <c r="AC2" t="s"/>
-      <c r="AD2" t="s"/>
-      <c r="AE2" t="s"/>
-      <c r="AF2" t="s"/>
-      <c r="AG2" t="s"/>
-      <c r="AH2" t="s"/>
-      <c r="AI2" t="s"/>
-      <c r="AJ2" t="s"/>
-      <c r="AK2" t="s"/>
-      <c r="AL2" t="s"/>
-      <c r="AM2" t="s"/>
-      <c r="AN2" t="s"/>
-      <c r="AO2" t="s"/>
-      <c r="AP2" t="s"/>
-      <c r="AQ2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>51</v>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>UKA</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>UKA</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>UKA_fromStatistic</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>UKA_fromStatistic</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>7.05.05</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>PatientRoom</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>UKA_07.05.05</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>UKA_07.05.05</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -801,38 +754,48 @@
       <c r="D3" t="n">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Washing</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.05.05.1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.05.05</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>3.48</v>
       </c>
-      <c r="I3" t="s"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>UKA_fromStatistic</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>2.8</v>
       </c>
-      <c r="O3" t="s"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>50</v>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>UKA</t>
+        </is>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -849,8 +812,10 @@
       <c r="V3" t="n">
         <v>22.96</v>
       </c>
-      <c r="W3" t="s">
-        <v>49</v>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>UKA_fromStatistic</t>
+        </is>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -858,44 +823,60 @@
       <c r="Y3" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
-      <c r="AE3" t="s"/>
-      <c r="AF3" t="s"/>
-      <c r="AG3" t="s"/>
-      <c r="AH3" t="s"/>
-      <c r="AI3" t="s"/>
-      <c r="AJ3" t="s"/>
-      <c r="AK3" t="s"/>
-      <c r="AL3" t="s"/>
-      <c r="AM3" t="s"/>
-      <c r="AN3" t="s"/>
-      <c r="AO3" t="s"/>
-      <c r="AP3" t="s"/>
-      <c r="AQ3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>51</v>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>UKA</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>UKA</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>UKA_fromStatistic</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>UKA_fromStatistic</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>7.05.05</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>PatientRoom</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>UKA_07.05.05</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>UKA_07.05.05</t>
+        </is>
       </c>
     </row>
   </sheetData>
